--- a/Assets/Resources/Tower.xlsx
+++ b/Assets/Resources/Tower.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="45" windowWidth="16245" windowHeight="6165"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$37</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
   <si>
     <t>TowerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,18 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tow_Gatling1.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow_Gatling2.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow_Gatling3.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tow_Gauss1.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,18 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tow_Rocket2_1.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow_Rocket2_2.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow_Rocket2_3.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tow_Tesla1.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,19 +236,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
+    <t>Laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gatlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow_Gatlin1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow_Gatlin2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow_Gatlin3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow_Rocket1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow_Rocket2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow_Rocket3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,7 +512,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -505,7 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,18 +721,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
@@ -700,7 +740,7 @@
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -734,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -752,7 +792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -778,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -804,7 +844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -812,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -830,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -838,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -856,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -864,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -882,7 +922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -908,7 +948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -934,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -960,7 +1000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
@@ -986,7 +1026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
@@ -1012,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -1038,7 +1078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
-        <v>5</v>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
@@ -1064,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1072,13 +1112,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
       </c>
-      <c r="E15" s="1">
-        <v>5</v>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
@@ -1090,7 +1130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1098,13 +1138,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
-        <v>5</v>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
@@ -1116,21 +1156,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1139,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1150,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="1">
-        <v>5</v>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
@@ -1165,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1176,25 +1216,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -1217,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1">
         <v>6</v>
@@ -1243,10 +1283,10 @@
         <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
@@ -1269,12 +1309,12 @@
         <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1282,8 +1322,8 @@
       <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="1">
-        <v>6</v>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -1292,13 +1332,13 @@
         <v>20</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1308,8 +1348,8 @@
       <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="1">
-        <v>6</v>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -1318,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1334,8 +1374,8 @@
       <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="1">
-        <v>6</v>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -1344,13 +1384,13 @@
         <v>20</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
@@ -1373,10 +1413,10 @@
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
@@ -1399,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
@@ -1425,10 +1465,10 @@
         <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
@@ -1451,10 +1491,10 @@
         <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -1477,10 +1517,10 @@
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -1503,10 +1543,10 @@
         <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1514,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
@@ -1529,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1540,10 +1580,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -1555,10 +1595,10 @@
         <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1566,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -1581,10 +1621,10 @@
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
@@ -1607,10 +1647,10 @@
         <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
@@ -1633,10 +1673,10 @@
         <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1644,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
@@ -1659,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1684,12 +1724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,12 +1737,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Tower.xlsx
+++ b/Assets/Resources/Tower.xlsx
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -812,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>24</v>
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>26</v>
@@ -942,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
@@ -968,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>28</v>
@@ -994,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>29</v>
@@ -1020,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>30</v>
@@ -1046,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>32</v>
@@ -1098,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>33</v>
@@ -1124,7 +1124,7 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>34</v>
@@ -1150,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>35</v>
@@ -1176,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>58</v>
@@ -1202,7 +1202,7 @@
         <v>20</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>59</v>
@@ -1228,7 +1228,7 @@
         <v>20</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>60</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>36</v>
@@ -1280,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>37</v>
@@ -1306,7 +1306,7 @@
         <v>20</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>38</v>
@@ -1332,7 +1332,7 @@
         <v>20</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>39</v>
@@ -1358,7 +1358,7 @@
         <v>20</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>40</v>
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>41</v>
@@ -1410,7 +1410,7 @@
         <v>20</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>42</v>
@@ -1436,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>43</v>
@@ -1462,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>44</v>
@@ -1488,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>45</v>
@@ -1514,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>46</v>
@@ -1540,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>47</v>
@@ -1566,7 +1566,7 @@
         <v>20</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>70</v>
@@ -1592,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>71</v>
@@ -1618,7 +1618,7 @@
         <v>20</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>72</v>
@@ -1644,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>48</v>
@@ -1670,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>49</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>50</v>

--- a/Assets/Resources/Tower.xlsx
+++ b/Assets/Resources/Tower.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="45" windowWidth="16245" windowHeight="6165"/>
+    <workbookView xWindow="396" yWindow="48" windowWidth="16248" windowHeight="6168"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$37</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
   <si>
     <t>TowerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -307,6 +303,18 @@
   </si>
   <si>
     <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,20 +732,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -855,7 +863,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -881,7 +889,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -907,7 +915,7 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -933,10 +941,10 @@
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -959,10 +967,10 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -985,10 +993,10 @@
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
@@ -1088,8 +1096,8 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1">
-        <v>6</v>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>56</v>
@@ -1114,8 +1122,8 @@
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1">
-        <v>6</v>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>56</v>
@@ -1140,8 +1148,8 @@
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1">
-        <v>6</v>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>56</v>
@@ -1557,7 +1565,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
@@ -1569,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1583,7 +1591,7 @@
         <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -1595,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1609,7 +1617,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -1621,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1729,7 +1737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1742,7 +1750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
